--- a/氣象性能評估工具V2/data/obs/backup/2016-06-22_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-22_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-22 00:00:00</t>
+    <t>2016-06-22-00</t>
   </si>
   <si>
     <t>24.1</t>
@@ -157,7 +157,7 @@
     <t>28.3</t>
   </si>
   <si>
-    <t>2016-06-22 01:00:00</t>
+    <t>2016-06-22-01</t>
   </si>
   <si>
     <t>23.1</t>
@@ -193,7 +193,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-22 02:00:00</t>
+    <t>2016-06-22-02</t>
   </si>
   <si>
     <t>26.4</t>
@@ -229,7 +229,7 @@
     <t>27.8</t>
   </si>
   <si>
-    <t>2016-06-22 03:00:00</t>
+    <t>2016-06-22-03</t>
   </si>
   <si>
     <t>22.8</t>
@@ -253,7 +253,7 @@
     <t>27.7</t>
   </si>
   <si>
-    <t>2016-06-22 04:00:00</t>
+    <t>2016-06-22-04</t>
   </si>
   <si>
     <t>22.5</t>
@@ -277,7 +277,7 @@
     <t>25.4</t>
   </si>
   <si>
-    <t>2016-06-22 05:00:00</t>
+    <t>2016-06-22-05</t>
   </si>
   <si>
     <t>23.8</t>
@@ -298,7 +298,7 @@
     <t>27.3</t>
   </si>
   <si>
-    <t>2016-06-22 06:00:00</t>
+    <t>2016-06-22-06</t>
   </si>
   <si>
     <t>29.9</t>
@@ -322,7 +322,7 @@
     <t>29.8</t>
   </si>
   <si>
-    <t>2016-06-22 07:00:00</t>
+    <t>2016-06-22-07</t>
   </si>
   <si>
     <t>25.0</t>
@@ -370,7 +370,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-22 08:00:00</t>
+    <t>2016-06-22-08</t>
   </si>
   <si>
     <t>25.6</t>
@@ -418,7 +418,7 @@
     <t>31.5</t>
   </si>
   <si>
-    <t>2016-06-22 09:00:00</t>
+    <t>2016-06-22-09</t>
   </si>
   <si>
     <t>32.6</t>
@@ -451,7 +451,7 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>2016-06-22 10:00:00</t>
+    <t>2016-06-22-10</t>
   </si>
   <si>
     <t>33.3</t>
@@ -481,7 +481,7 @@
     <t>33.4</t>
   </si>
   <si>
-    <t>2016-06-22 11:00:00</t>
+    <t>2016-06-22-11</t>
   </si>
   <si>
     <t>33.0</t>
@@ -511,7 +511,7 @@
     <t>33.6</t>
   </si>
   <si>
-    <t>2016-06-22 12:00:00</t>
+    <t>2016-06-22-12</t>
   </si>
   <si>
     <t>33.2</t>
@@ -541,7 +541,7 @@
     <t>34.4</t>
   </si>
   <si>
-    <t>2016-06-22 13:00:00</t>
+    <t>2016-06-22-13</t>
   </si>
   <si>
     <t>25.3</t>
@@ -556,10 +556,10 @@
     <t>10.9</t>
   </si>
   <si>
-    <t>2016-06-22 14:00:00</t>
-  </si>
-  <si>
-    <t>2016-06-22 15:00:00</t>
+    <t>2016-06-22-14</t>
+  </si>
+  <si>
+    <t>2016-06-22-15</t>
   </si>
   <si>
     <t>34.3</t>
@@ -571,7 +571,7 @@
     <t>9.5</t>
   </si>
   <si>
-    <t>2016-06-22 16:00:00</t>
+    <t>2016-06-22-16</t>
   </si>
   <si>
     <t>24.9</t>
@@ -586,7 +586,7 @@
     <t>8.7</t>
   </si>
   <si>
-    <t>2016-06-22 17:00:00</t>
+    <t>2016-06-22-17</t>
   </si>
   <si>
     <t>15.2</t>
@@ -595,7 +595,7 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-22 18:00:00</t>
+    <t>2016-06-22-18</t>
   </si>
   <si>
     <t>23.6</t>
@@ -604,7 +604,7 @@
     <t>14.7</t>
   </si>
   <si>
-    <t>2016-06-22 19:00:00</t>
+    <t>2016-06-22-19</t>
   </si>
   <si>
     <t>29.6</t>
@@ -619,7 +619,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-22 20:00:00</t>
+    <t>2016-06-22-20</t>
   </si>
   <si>
     <t>14.9</t>
@@ -628,7 +628,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>2016-06-22 21:00:00</t>
+    <t>2016-06-22-21</t>
   </si>
   <si>
     <t>24.6</t>
@@ -637,7 +637,7 @@
     <t>14.3</t>
   </si>
   <si>
-    <t>2016-06-22 22:00:00</t>
+    <t>2016-06-22-22</t>
   </si>
   <si>
     <t>22.7</t>
@@ -649,7 +649,7 @@
     <t>7.8</t>
   </si>
   <si>
-    <t>2016-06-22 23:00:00</t>
+    <t>2016-06-22-23</t>
   </si>
   <si>
     <t>22.3</t>
